--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -99,9 +99,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -285,7 +286,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,11 +427,11 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ2" activeCellId="0" sqref="AJ2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>

--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">{{CreationDate}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Выбранные фильтры: {{SelectedIndicatorsString}}</t>
+    <t xml:space="preserve">Выбранные фильтры: {{Filters}}</t>
   </si>
   <si>
     <t xml:space="preserve">Сформировано: {{CreationDate.ToString()}}</t>
@@ -92,19 +92,18 @@
     <t xml:space="preserve">{{item.GeographicalGroups}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item}}</t>
+    <t xml:space="preserve">{{Item}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +151,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="2"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -177,10 +183,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
+      <left style="hair"/>
+      <right style="hair"/>
       <top style="hair"/>
-      <bottom/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -190,13 +196,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -229,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -246,7 +245,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,7 +273,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,7 +293,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,11 +434,11 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN3" activeCellId="0" sqref="AN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
@@ -439,6 +446,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="10" style="0" width="6.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.57"/>
   </cols>
@@ -479,233 +487,233 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN3" s="3" t="s">
+      <c r="AN3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8" t="s">
+    <row r="6" s="14" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="S6" s="8" t="n">
+      <c r="S6" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="T6" s="8" t="n">
+      <c r="T6" s="12" t="n">
         <v>11</v>
       </c>
-      <c r="U6" s="8" t="n">
+      <c r="U6" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="V6" s="8" t="n">
+      <c r="V6" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="W6" s="8" t="n">
+      <c r="W6" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="X6" s="8" t="n">
+      <c r="X6" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" s="8" t="n">
+      <c r="Y6" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="Z6" s="8" t="n">
+      <c r="Z6" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" s="8" t="n">
+      <c r="AA6" s="12" t="n">
         <v>18</v>
       </c>
-      <c r="AB6" s="8" t="n">
+      <c r="AB6" s="12" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" s="8" t="n">
+      <c r="AC6" s="12" t="n">
         <v>20</v>
       </c>
-      <c r="AD6" s="8" t="n">
+      <c r="AD6" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="AE6" s="8" t="n">
+      <c r="AE6" s="12" t="n">
         <v>22</v>
       </c>
-      <c r="AF6" s="8" t="n">
+      <c r="AF6" s="12" t="n">
         <v>23</v>
       </c>
-      <c r="AG6" s="8" t="n">
+      <c r="AG6" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="AH6" s="8" t="n">
+      <c r="AH6" s="12" t="n">
         <v>25</v>
       </c>
-      <c r="AI6" s="8" t="n">
+      <c r="AI6" s="12" t="n">
         <v>26</v>
       </c>
-      <c r="AJ6" s="8" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" s="8" t="n">
+      <c r="AK6" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="AL6" s="8" t="n">
+      <c r="AL6" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" s="8" t="n">
+      <c r="AM6" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="AN6" s="8" t="n">
+      <c r="AN6" s="12" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +747,7 @@
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="33" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="31" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport.xlsx
@@ -228,7 +228,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,7 +241,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,12 +249,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -434,11 +430,11 @@
   </sheetPr>
   <dimension ref="A2:AN12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN3" activeCellId="0" sqref="AN3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
@@ -449,6 +445,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="10" style="0" width="6.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="2.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="2.77"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,233 +484,233 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AN3" s="5" t="s">
+      <c r="AN3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="6" t="s">
+    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
     </row>
-    <row r="6" s="14" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" s="13" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="O6" s="13" t="n">
+      <c r="O6" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="11" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
